--- a/Тестовая_таблица_графы.xlsx
+++ b/Тестовая_таблица_графы.xlsx
@@ -3,17 +3,18 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Граф" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Объем" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Колонка_1</t>
   </si>
@@ -24,9 +25,6 @@
     <t>Потомок</t>
   </si>
   <si>
-    <t xml:space="preserve">Объем работы потомка</t>
-  </si>
-  <si>
     <t>Тест</t>
   </si>
   <si>
@@ -61,6 +59,12 @@
   </si>
   <si>
     <t>Икс_11</t>
+  </si>
+  <si>
+    <t>Альфа</t>
+  </si>
+  <si>
+    <t>Объем</t>
   </si>
 </sst>
 </file>
@@ -95,10 +99,13 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="4" xfId="0" applyNumberFormat="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
+      <protection hidden="0" locked="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -628,38 +635,35 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="D1" s="1"/>
     </row>
     <row r="2" ht="14.25">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1">
-        <v>10000</v>
-      </c>
+      <c r="D2" s="1"/>
     </row>
     <row r="3" ht="14.25">
       <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="1">
-        <v>5000</v>
-      </c>
+      <c r="D3" s="1"/>
     </row>
     <row r="4" ht="14.25">
       <c r="A4" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -667,55 +671,47 @@
       <c r="C4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="1">
-        <v>5000</v>
-      </c>
+      <c r="D4" s="1"/>
     </row>
     <row r="5" ht="14.25">
       <c r="A5" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="1">
-        <v>2000</v>
-      </c>
+      <c r="D5" s="1"/>
     </row>
     <row r="6" ht="14.25">
       <c r="A6" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="1">
-        <v>3000</v>
-      </c>
+      <c r="D6" s="1"/>
     </row>
     <row r="7" ht="14.25">
       <c r="A7" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="1">
-        <v>500</v>
-      </c>
+      <c r="D7" s="1"/>
     </row>
     <row r="8" ht="14.25">
       <c r="A8" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
@@ -723,63 +719,166 @@
       <c r="C8" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="1">
-        <v>1500</v>
-      </c>
+      <c r="D8" s="1"/>
     </row>
     <row r="9" ht="14.25">
       <c r="A9" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="1">
-        <v>1000</v>
-      </c>
+      <c r="D9" s="1"/>
     </row>
     <row r="10" ht="14.25">
       <c r="A10" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="1">
-        <v>2000</v>
-      </c>
+      <c r="D10" s="1"/>
     </row>
     <row r="11" ht="14.25">
       <c r="A11" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" ht="14.25">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="1"/>
+    </row>
+  </sheetData>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetViews>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" ht="14.25">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25">
+      <c r="A2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25">
+      <c r="A3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25">
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25">
+      <c r="A5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25">
+      <c r="A6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25">
+      <c r="A7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="9" ht="14.25">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="10" ht="14.25">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="1">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="11" ht="14.25">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="1">
         <v>200</v>
       </c>
     </row>
     <row r="12" ht="14.25">
-      <c r="A12" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="1">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="1">
         <v>800</v>
       </c>
     </row>
